--- a/0.EJEMPLOS_EXAMPLES/FastTest PlugIn - Formula_Examples - GENERAL DATA.xlsx
+++ b/0.EJEMPLOS_EXAMPLES/FastTest PlugIn - Formula_Examples - GENERAL DATA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AHGM\0. APLICACIONES\FastTest PlugIn\0.EJEMPLOS_EXAMPLES\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\FTP\z. V8.0\0.EJEMPLOS_EXAMPLES\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B94F0943-491B-4780-A547-D0668A36ED72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="10920" tabRatio="805"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="19386" windowHeight="12266" tabRatio="805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulas DG" sheetId="9" r:id="rId1"/>
@@ -22,195 +23,28 @@
     <sheet name="Formulas EN" sheetId="5" r:id="rId8"/>
     <sheet name="Formulas CL" sheetId="6" r:id="rId9"/>
   </sheets>
-  <definedNames>
-    <definedName name="Dato_01" localSheetId="8">'Formulas CL'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="0">'Formulas DG'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="4">'Formulas EM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="7">'Formulas EN'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="2">'Formulas O2'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="1">'Formulas OM'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="6">'Formulas PP'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="5">'Formulas RC'!$Y$5</definedName>
-    <definedName name="Dato_01" localSheetId="3">'Formulas VF'!$Y$5</definedName>
-    <definedName name="Dato_02" localSheetId="8">'Formulas CL'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="0">'Formulas DG'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="4">'Formulas EM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="7">'Formulas EN'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="2">'Formulas O2'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="1">'Formulas OM'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="6">'Formulas PP'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="5">'Formulas RC'!$Y$7</definedName>
-    <definedName name="Dato_02" localSheetId="3">'Formulas VF'!$Y$7</definedName>
-    <definedName name="Dato_03" localSheetId="8">'Formulas CL'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="0">'Formulas DG'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="4">'Formulas EM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="7">'Formulas EN'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="2">'Formulas O2'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="1">'Formulas OM'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="6">'Formulas PP'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="5">'Formulas RC'!$Y$9</definedName>
-    <definedName name="Dato_03" localSheetId="3">'Formulas VF'!$Y$9</definedName>
-    <definedName name="Dato_04" localSheetId="8">'Formulas CL'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="0">'Formulas DG'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="4">'Formulas EM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="7">'Formulas EN'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="2">'Formulas O2'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="1">'Formulas OM'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="6">'Formulas PP'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="5">'Formulas RC'!$Y$11</definedName>
-    <definedName name="Dato_04" localSheetId="3">'Formulas VF'!$Y$11</definedName>
-    <definedName name="Dato_05" localSheetId="8">'Formulas CL'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="0">'Formulas DG'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="4">'Formulas EM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="7">'Formulas EN'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="2">'Formulas O2'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="1">'Formulas OM'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="6">'Formulas PP'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="5">'Formulas RC'!$Y$13</definedName>
-    <definedName name="Dato_05" localSheetId="3">'Formulas VF'!$Y$13</definedName>
-    <definedName name="Dato_06" localSheetId="8">'Formulas CL'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="0">'Formulas DG'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="4">'Formulas EM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="7">'Formulas EN'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="2">'Formulas O2'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="1">'Formulas OM'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="6">'Formulas PP'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="5">'Formulas RC'!$Y$15</definedName>
-    <definedName name="Dato_06" localSheetId="3">'Formulas VF'!$Y$15</definedName>
-    <definedName name="Dato_07" localSheetId="8">'Formulas CL'!$Y$17</definedName>
-    <definedName name="Dato_07" localSheetId="1">'Formulas OM'!$Y$17</definedName>
-    <definedName name="Dato_08" localSheetId="8">'Formulas CL'!$Y$19</definedName>
-    <definedName name="Dato_10" localSheetId="8">'Formulas CL'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="0">'Formulas DG'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="4">'Formulas EM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="7">'Formulas EN'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="2">'Formulas O2'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="1">'Formulas OM'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="6">'Formulas PP'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="5">'Formulas RC'!$Y$23</definedName>
-    <definedName name="Dato_10" localSheetId="3">'Formulas VF'!$Y$23</definedName>
-    <definedName name="Dato_11" localSheetId="8">'Formulas CL'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="0">'Formulas DG'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="4">'Formulas EM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="7">'Formulas EN'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="2">'Formulas O2'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="1">'Formulas OM'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="6">'Formulas PP'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="5">'Formulas RC'!$Y$25</definedName>
-    <definedName name="Dato_11" localSheetId="3">'Formulas VF'!$Y$25</definedName>
-    <definedName name="Dato_12" localSheetId="8">'Formulas CL'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="0">'Formulas DG'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="4">'Formulas EM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="7">'Formulas EN'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="2">'Formulas O2'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="1">'Formulas OM'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="6">'Formulas PP'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="5">'Formulas RC'!$Y$27</definedName>
-    <definedName name="Dato_12" localSheetId="3">'Formulas VF'!$Y$27</definedName>
-    <definedName name="Dato_13" localSheetId="8">'Formulas CL'!$Y$29</definedName>
-    <definedName name="Dato_14" localSheetId="8">'Formulas CL'!$Y$31</definedName>
-    <definedName name="Dato_15" localSheetId="8">'Formulas CL'!$Y$33</definedName>
-    <definedName name="Dato_16" localSheetId="8">'Formulas CL'!$Y$35</definedName>
-    <definedName name="Dato_17" localSheetId="8">'Formulas CL'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="0">'Formulas DG'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="4">'Formulas EM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="7">'Formulas EN'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="2">'Formulas O2'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="1">'Formulas OM'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="6">'Formulas PP'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="5">'Formulas RC'!$AA$5</definedName>
-    <definedName name="Dato_17" localSheetId="3">'Formulas VF'!$AA$5</definedName>
-    <definedName name="Dato_18" localSheetId="8">'Formulas CL'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="0">'Formulas DG'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="4">'Formulas EM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="7">'Formulas EN'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="2">'Formulas O2'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="1">'Formulas OM'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="6">'Formulas PP'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="5">'Formulas RC'!$AA$7</definedName>
-    <definedName name="Dato_18" localSheetId="3">'Formulas VF'!$AA$7</definedName>
-    <definedName name="Dato_19" localSheetId="8">'Formulas CL'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="0">'Formulas DG'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="4">'Formulas EM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="7">'Formulas EN'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="2">'Formulas O2'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="1">'Formulas OM'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="6">'Formulas PP'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="5">'Formulas RC'!$AA$9</definedName>
-    <definedName name="Dato_19" localSheetId="3">'Formulas VF'!$AA$9</definedName>
-    <definedName name="Dato_20" localSheetId="8">'Formulas CL'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="0">'Formulas DG'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="4">'Formulas EM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="7">'Formulas EN'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="2">'Formulas O2'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="1">'Formulas OM'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="6">'Formulas PP'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="5">'Formulas RC'!$AA$11</definedName>
-    <definedName name="Dato_20" localSheetId="3">'Formulas VF'!$AA$11</definedName>
-    <definedName name="Dato_21" localSheetId="8">'Formulas CL'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="0">'Formulas DG'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="4">'Formulas EM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="7">'Formulas EN'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="2">'Formulas O2'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="1">'Formulas OM'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="6">'Formulas PP'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="5">'Formulas RC'!$AA$13</definedName>
-    <definedName name="Dato_21" localSheetId="3">'Formulas VF'!$AA$13</definedName>
-    <definedName name="Dato_22" localSheetId="8">'Formulas CL'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="0">'Formulas DG'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="4">'Formulas EM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="7">'Formulas EN'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="2">'Formulas O2'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="1">'Formulas OM'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="6">'Formulas PP'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="5">'Formulas RC'!$AA$15</definedName>
-    <definedName name="Dato_22" localSheetId="3">'Formulas VF'!$AA$15</definedName>
-    <definedName name="Dato_23" localSheetId="8">'Formulas CL'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="0">'Formulas DG'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="4">'Formulas EM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="7">'Formulas EN'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="2">'Formulas O2'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="1">'Formulas OM'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="6">'Formulas PP'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="5">'Formulas RC'!$AA$17</definedName>
-    <definedName name="Dato_23" localSheetId="3">'Formulas VF'!$AA$17</definedName>
-    <definedName name="Dato_24" localSheetId="8">'Formulas CL'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="0">'Formulas DG'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="4">'Formulas EM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="7">'Formulas EN'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="2">'Formulas O2'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="1">'Formulas OM'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="6">'Formulas PP'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="5">'Formulas RC'!$AA$19</definedName>
-    <definedName name="Dato_24" localSheetId="3">'Formulas VF'!$AA$19</definedName>
-    <definedName name="Dato_25" localSheetId="8">'Formulas CL'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="0">'Formulas DG'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="4">'Formulas EM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="7">'Formulas EN'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="2">'Formulas O2'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="1">'Formulas OM'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="6">'Formulas PP'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="5">'Formulas RC'!$AA$21</definedName>
-    <definedName name="Dato_25" localSheetId="3">'Formulas VF'!$AA$21</definedName>
-    <definedName name="Dato_26" localSheetId="8">'Formulas CL'!$AA$23</definedName>
-    <definedName name="Dato_27" localSheetId="8">'Formulas CL'!$AA$25</definedName>
-    <definedName name="Dato_28" localSheetId="8">'Formulas CL'!$AA$27</definedName>
-    <definedName name="Dato_29" localSheetId="8">'Formulas CL'!$AA$29</definedName>
-    <definedName name="Dato_30" localSheetId="8">'Formulas CL'!$AA$31</definedName>
-    <definedName name="Dato_31" localSheetId="8">'Formulas CL'!$AA$33</definedName>
-    <definedName name="Dato_32" localSheetId="8">'Formulas CL'!$AA$35</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="204">
   <si>
     <t>DATO_01</t>
   </si>
@@ -708,9 +542,6 @@
   </si>
   <si>
     <t>SubCat_12</t>
-  </si>
-  <si>
-    <t>V - 7.0</t>
   </si>
   <si>
     <t>CATEGORÍA: T 01-20</t>
@@ -820,12 +651,18 @@
   <si>
     <t xml:space="preserve">Haga clic en las etiquetas de texto para alternar: normal/rojo ondulado. &lt;br&gt;
 Haga clic en los botones para seleccionar la respuesta. </t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>V - 8.0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1029,12 +866,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1071,41 +908,25 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1410,119 +1231,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja9"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="AD4" sqref="AD4"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="AG25" sqref="AG25"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="25.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="25.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC2"/>
       <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
         <v>20</v>
       </c>
       <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
         <v>8</v>
       </c>
       <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
         <v>0</v>
       </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
       <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
         <v>0</v>
       </c>
       <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
         <v>0</v>
       </c>
       <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
         <v>5</v>
       </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>3</v>
@@ -1531,27 +1316,27 @@
         <v>121</v>
       </c>
       <c r="AD4" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG4" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AJ4" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM4" s="4"/>
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>122</v>
       </c>
       <c r="AC5" s="7" t="s">
         <v>133</v>
       </c>
       <c r="AD5" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG5" s="8"/>
       <c r="AJ5" s="8"/>
@@ -1559,13 +1344,13 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>134</v>
       </c>
       <c r="AD6" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG6" s="10"/>
       <c r="AJ6" s="10"/>
@@ -1573,13 +1358,13 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>135</v>
       </c>
       <c r="AD7" s="10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG7" s="10"/>
       <c r="AJ7" s="10"/>
@@ -1587,13 +1372,13 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>136</v>
       </c>
       <c r="AD8" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG8" s="10"/>
       <c r="AJ8" s="10"/>
@@ -1601,13 +1386,13 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>137</v>
       </c>
       <c r="AD9" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG9" s="10"/>
       <c r="AJ9" s="10"/>
@@ -1615,13 +1400,13 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>138</v>
       </c>
       <c r="AD10" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG10" s="10"/>
       <c r="AJ10" s="10"/>
@@ -1629,13 +1414,13 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>139</v>
       </c>
       <c r="AD11" s="10" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG11" s="10"/>
       <c r="AJ11" s="10"/>
@@ -1643,13 +1428,13 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>140</v>
       </c>
       <c r="AD12" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG12" s="10"/>
       <c r="AJ12" s="10"/>
@@ -1657,13 +1442,13 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>141</v>
       </c>
       <c r="AD13" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG13" s="10"/>
       <c r="AJ13" s="10"/>
@@ -1671,13 +1456,13 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>142</v>
       </c>
       <c r="AD14" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG14" s="10"/>
       <c r="AJ14" s="10"/>
@@ -1685,13 +1470,13 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>143</v>
       </c>
       <c r="AD15" s="10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG15" s="10"/>
       <c r="AJ15" s="10"/>
@@ -1699,13 +1484,13 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>144</v>
       </c>
       <c r="AD16" s="10" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG16" s="10"/>
       <c r="AJ16" s="10"/>
@@ -1713,13 +1498,13 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>145</v>
       </c>
       <c r="AD17" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG17" s="10"/>
       <c r="AJ17" s="10"/>
@@ -1727,13 +1512,13 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>146</v>
       </c>
       <c r="AD18" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AG18" s="10"/>
       <c r="AJ18" s="10"/>
@@ -1741,13 +1526,13 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>147</v>
       </c>
       <c r="AD19" s="10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AG19" s="10"/>
       <c r="AJ19" s="10"/>
@@ -1755,13 +1540,13 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>148</v>
       </c>
       <c r="AD20" s="10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="AG20" s="10"/>
       <c r="AJ20" s="10"/>
@@ -1769,15 +1554,15 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>123</v>
       </c>
       <c r="AC21" s="9" t="s">
         <v>149</v>
       </c>
       <c r="AD21" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="AG21" s="10"/>
       <c r="AJ21" s="10"/>
@@ -1785,13 +1570,13 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>150</v>
       </c>
       <c r="AD22" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG22" s="10"/>
       <c r="AJ22" s="10"/>
@@ -1799,13 +1584,13 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>151</v>
       </c>
       <c r="AD23" s="10" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AG23" s="10"/>
       <c r="AJ23" s="10"/>
@@ -1813,13 +1598,13 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="11" t="s">
         <v>152</v>
       </c>
       <c r="AD24" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG24" s="12"/>
       <c r="AJ24" s="12"/>
@@ -1827,120 +1612,120 @@
       <c r="AP24" s="12"/>
       <c r="AS24" s="12"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="7" t="s">
         <v>154</v>
       </c>
       <c r="AD25" s="8"/>
       <c r="AG25" s="8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AJ25" s="8"/>
       <c r="AM25" s="8"/>
       <c r="AP25" s="8"/>
       <c r="AS25" s="8"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>155</v>
       </c>
       <c r="AD26" s="10"/>
       <c r="AG26" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AJ26" s="10"/>
       <c r="AM26" s="10"/>
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>156</v>
       </c>
       <c r="AD27" s="10"/>
       <c r="AG27" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AJ27" s="10"/>
       <c r="AM27" s="10"/>
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>157</v>
       </c>
       <c r="AD28" s="10"/>
       <c r="AG28" s="10" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AJ28" s="10"/>
       <c r="AM28" s="10"/>
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>158</v>
       </c>
       <c r="AD29" s="10"/>
       <c r="AG29" s="10" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AJ29" s="10"/>
       <c r="AM29" s="10"/>
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>159</v>
       </c>
       <c r="AD30" s="10"/>
       <c r="AG30" s="10" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AJ30" s="10"/>
       <c r="AM30" s="10"/>
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>160</v>
       </c>
       <c r="AD31" s="10"/>
       <c r="AG31" s="10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AJ31" s="10"/>
       <c r="AM31" s="10"/>
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>161</v>
       </c>
       <c r="AD32" s="10"/>
       <c r="AG32" s="10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AJ32" s="10"/>
       <c r="AM32" s="10"/>
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>162</v>
       </c>
@@ -1951,8 +1736,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>163</v>
       </c>
@@ -1963,8 +1748,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>164</v>
       </c>
@@ -1975,8 +1760,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>165</v>
       </c>
@@ -1987,9 +1772,9 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="s">
-        <v>166</v>
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="s">
+        <v>203</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -1999,7 +1784,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2010,8 +1795,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>124</v>
       </c>
       <c r="AD39" s="8"/>
@@ -2021,8 +1806,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>125</v>
       </c>
       <c r="AD40" s="10"/>
@@ -2032,8 +1817,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>126</v>
       </c>
       <c r="AD41" s="10"/>
@@ -2043,8 +1828,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>127</v>
       </c>
       <c r="AD42" s="10"/>
@@ -2054,60 +1839,60 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>128</v>
       </c>
       <c r="AD43" s="10"/>
       <c r="AG43" s="10"/>
       <c r="AJ43" s="10" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM43" s="10"/>
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>129</v>
       </c>
       <c r="AD44" s="10"/>
       <c r="AG44" s="10"/>
       <c r="AJ44" s="10" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AM44" s="10"/>
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>131</v>
       </c>
       <c r="AD45" s="10"/>
       <c r="AG45" s="10"/>
       <c r="AJ45" s="10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AM45" s="10"/>
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>130</v>
       </c>
       <c r="AD46" s="10"/>
       <c r="AG46" s="10"/>
       <c r="AJ46" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM46" s="10"/>
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>132</v>
       </c>
       <c r="AD47" s="10"/>
@@ -2117,102 +1902,24 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>153</v>
       </c>
       <c r="AD48" s="12"/>
       <c r="AG48" s="12"/>
       <c r="AJ48" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AM48" s="12"/>
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="Lj31+IbYF4wGfreO8YMyBY+n2+BtKI90+nx7gQxzKBkWiJ7VScGPUlWnIdYuFDOFb3qowKzbhfCaqPH6wBrjlQ==" saltValue="WWRnV3GO8Ln/t9h0XOsAXQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="byL9IpA6cvPK83Fl1+EH1c2+32JxGXySbE1lWpFoLkfWZvvnRvlm9XAXlEDbPeXzcv2rkezSdl8CRbJZ/2Zgmg==" saltValue="nG3clNZ6+uYSaEW9FrECvg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -2223,119 +1930,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD10" sqref="AD10"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -2350,8 +2003,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>105</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -2364,8 +2017,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -2376,8 +2029,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -2388,8 +2041,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -2400,8 +2053,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -2412,8 +2065,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -2424,8 +2077,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -2436,8 +2089,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -2448,8 +2101,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -2460,8 +2113,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -2472,8 +2125,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -2484,8 +2137,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -2496,8 +2149,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -2508,8 +2161,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -2520,8 +2173,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -2532,8 +2185,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -2544,8 +2197,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>106</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -2558,8 +2211,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -2570,8 +2223,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -2582,8 +2235,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -2594,8 +2247,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -2606,8 +2259,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -2618,8 +2271,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -2630,8 +2283,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -2642,8 +2295,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -2654,8 +2307,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -2666,8 +2319,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -2678,8 +2331,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -2690,8 +2343,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -2702,8 +2355,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -2714,8 +2367,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -2726,8 +2379,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -2738,10 +2391,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas DG'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -2751,7 +2404,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -2762,8 +2415,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -2773,8 +2426,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -2784,8 +2437,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD41" s="10"/>
@@ -2795,8 +2448,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD42" s="10"/>
@@ -2806,8 +2459,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD43" s="10"/>
@@ -2817,8 +2470,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD44" s="10"/>
@@ -2828,8 +2481,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -2839,8 +2492,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -2850,8 +2503,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10"/>
@@ -2861,8 +2514,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10"/>
@@ -2872,8 +2525,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10"/>
@@ -2883,8 +2536,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10"/>
@@ -2894,8 +2547,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -2905,8 +2558,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -2916,8 +2569,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10"/>
@@ -2927,8 +2580,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10"/>
@@ -2938,8 +2591,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10"/>
@@ -2949,8 +2602,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10"/>
@@ -2960,8 +2613,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -2971,30 +2624,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -3004,8 +2657,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -3015,8 +2668,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -3026,8 +2679,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -3037,72 +2690,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="6F/IxEwX6T1en8CnhT8uF4mgXigx9MvKEsoFsirVOdsQfChP2cMap58L8qd27UEaT7uRgfU1tlD7OKNHdbyOFg==" saltValue="IiSxCR7rL0401vDVhyEq5g==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="/g8Bf3lLC3qCqgNtVEKIG9o04WLjvo3BeRb2uOUTIt5B8RdXJUFj9XUJAh2LgmzyogqphpPtohCqe+pgevpDOA==" saltValue="zY6zmy7xoHo7130X4kkhFg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -3113,119 +2703,65 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS64"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD30" sqref="AD30"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -3240,8 +2776,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>107</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -3254,8 +2790,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -3266,8 +2802,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -3278,8 +2814,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -3290,8 +2826,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -3302,8 +2838,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -3314,8 +2850,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -3326,8 +2862,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -3338,8 +2874,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -3350,8 +2886,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -3362,8 +2898,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -3374,8 +2910,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -3386,8 +2922,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -3398,8 +2934,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -3410,8 +2946,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -3422,8 +2958,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -3434,8 +2970,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>108</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -3448,8 +2984,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -3460,8 +2996,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -3472,8 +3008,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -3484,8 +3020,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -3496,8 +3032,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -3508,8 +3044,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -3520,8 +3056,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -3532,8 +3068,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -3544,8 +3080,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -3556,8 +3092,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -3568,8 +3104,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -3580,8 +3116,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -3592,8 +3128,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -3604,8 +3140,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -3616,8 +3152,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -3628,10 +3164,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -3641,7 +3177,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -3652,8 +3188,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -3663,8 +3199,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -3674,8 +3210,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD41" s="10"/>
@@ -3685,8 +3221,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD42" s="10"/>
@@ -3696,8 +3232,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD43" s="10"/>
@@ -3707,8 +3243,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD44" s="10"/>
@@ -3718,8 +3254,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD45" s="10"/>
@@ -3729,8 +3265,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD46" s="10"/>
@@ -3740,8 +3276,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>46</v>
       </c>
       <c r="AD47" s="10"/>
@@ -3751,8 +3287,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>47</v>
       </c>
       <c r="AD48" s="10"/>
@@ -3762,8 +3298,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="AD49" s="10"/>
@@ -3773,8 +3309,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="AD50" s="10"/>
@@ -3784,8 +3320,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="AD51" s="10"/>
@@ -3795,8 +3331,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="AD52" s="10"/>
@@ -3806,8 +3342,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD53" s="10"/>
@@ -3817,8 +3353,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD54" s="10"/>
@@ -3828,8 +3364,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD55" s="10"/>
@@ -3839,8 +3375,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD56" s="10"/>
@@ -3850,8 +3386,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD57" s="10"/>
@@ -3861,30 +3397,30 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC58" s="16" t="s">
+    <row r="58" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC58" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AD58" s="26"/>
-      <c r="AG58" s="26"/>
-      <c r="AJ58" s="26"/>
-      <c r="AM58" s="26"/>
-      <c r="AP58" s="26"/>
-      <c r="AS58" s="26"/>
-    </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="18" t="s">
+      <c r="AD58" s="20"/>
+      <c r="AG58" s="20"/>
+      <c r="AJ58" s="20"/>
+      <c r="AM58" s="20"/>
+      <c r="AP58" s="20"/>
+      <c r="AS58" s="20"/>
+    </row>
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD59" s="27"/>
-      <c r="AG59" s="27"/>
-      <c r="AJ59" s="27"/>
-      <c r="AM59" s="27"/>
-      <c r="AP59" s="27"/>
-      <c r="AS59" s="27"/>
-    </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+      <c r="AD59" s="21"/>
+      <c r="AG59" s="21"/>
+      <c r="AJ59" s="21"/>
+      <c r="AM59" s="21"/>
+      <c r="AP59" s="21"/>
+      <c r="AS59" s="21"/>
+    </row>
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD60" s="10"/>
@@ -3894,8 +3430,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD61" s="10"/>
@@ -3905,8 +3441,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD62" s="10"/>
@@ -3916,8 +3452,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC63" s="15" t="s">
+    <row r="63" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC63" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD63" s="12"/>
@@ -3927,72 +3463,9 @@
       <c r="AP63" s="12"/>
       <c r="AS63" s="12"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="zXGk1MAWxynZROgFyXM/EO8XcFNr9XmqGQ/+WXZDMwOYMm0DyzqGI4jM14w/82WG3HaEK9RFnerr/2FbZsEkfw==" saltValue="shB5Pa2+rJ574lwu5MIGWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="V2qELnd0Cxj4KAUEYvmhJzhm5wHOQl72rkuR+qyHIuT4p3aJbBJN3yRlCn9//0H0e6XkAJAM8YFBlg/7bap78Q==" saltValue="Nl05nhhKJGVsCLOKvRwmsg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4002,119 +3475,65 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -4129,8 +3548,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>109</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -4143,8 +3562,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4155,8 +3574,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4167,8 +3586,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4179,8 +3598,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4191,8 +3610,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4203,8 +3622,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4215,8 +3634,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4227,8 +3646,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4239,8 +3658,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -4251,8 +3670,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -4263,8 +3682,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -4275,8 +3694,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -4287,8 +3706,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -4299,8 +3718,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -4311,8 +3730,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -4323,8 +3742,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>110</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -4337,8 +3756,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -4349,8 +3768,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -4361,8 +3780,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -4373,8 +3792,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -4385,8 +3804,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -4397,8 +3816,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -4409,8 +3828,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -4421,8 +3840,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -4433,8 +3852,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -4445,8 +3864,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -4457,8 +3876,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -4469,8 +3888,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -4481,8 +3900,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -4493,8 +3912,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -4505,8 +3924,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -4517,10 +3936,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -4530,7 +3949,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -4541,8 +3960,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -4552,8 +3971,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -4563,8 +3982,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>58</v>
       </c>
       <c r="AD41" s="10"/>
@@ -4574,8 +3993,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>60</v>
       </c>
       <c r="AD42" s="10"/>
@@ -4585,29 +4004,29 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC43" s="15" t="s">
+    <row r="43" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC43" s="11" t="s">
         <v>59</v>
       </c>
       <c r="AD43" s="12"/>
-      <c r="AE43" s="20"/>
-      <c r="AF43" s="20"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
       <c r="AG43" s="12"/>
-      <c r="AH43" s="20"/>
-      <c r="AI43" s="20"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="17"/>
       <c r="AJ43" s="12"/>
-      <c r="AK43" s="20"/>
-      <c r="AL43" s="20"/>
+      <c r="AK43" s="17"/>
+      <c r="AL43" s="17"/>
       <c r="AM43" s="12"/>
-      <c r="AN43" s="20"/>
-      <c r="AO43" s="20"/>
+      <c r="AN43" s="17"/>
+      <c r="AO43" s="17"/>
       <c r="AP43" s="12"/>
-      <c r="AQ43" s="20"/>
-      <c r="AR43" s="20"/>
+      <c r="AQ43" s="17"/>
+      <c r="AR43" s="17"/>
       <c r="AS43" s="12"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="13" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="7" t="s">
         <v>35</v>
       </c>
       <c r="AD44" s="8"/>
@@ -4617,8 +4036,8 @@
       <c r="AP44" s="8"/>
       <c r="AS44" s="8"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD45" s="10"/>
@@ -4628,8 +4047,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD46" s="10"/>
@@ -4639,8 +4058,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD47" s="10"/>
@@ -4650,8 +4069,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="15" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD48" s="12"/>
@@ -4661,89 +4080,11 @@
       <c r="AP48" s="12"/>
       <c r="AS48" s="12"/>
     </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="kb5iloleQ8XsjqhnbxEUdh+4ZMVREoA1ecXzfmEWmeg45gyFkqBYwbjKCvDSTdNQy0ZIrVv/EpD1hHcGVCzYCQ==" saltValue="sciZWuHGDRNwuCKv7OE3zg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="2ldkPUtAsbk8IocI59AG7cus5BLEZn9AIr93X4LKAh9tUbQa6k06tRnug0bPFsDOG81kUZy8YPJTIMbMVhQY1Q==" saltValue="/1//zAw9cdEtzgf7ofYblQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -4754,119 +4095,65 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr codeName="Hoja4"/>
-  <dimension ref="A1:AS130"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -4881,8 +4168,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>111</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -4895,8 +4182,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -4907,8 +4194,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -4919,8 +4206,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -4931,8 +4218,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -4943,8 +4230,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -4955,8 +4242,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -4967,8 +4254,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -4979,8 +4266,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -4991,8 +4278,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5003,8 +4290,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5015,8 +4302,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -5027,8 +4314,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -5039,8 +4326,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -5051,8 +4338,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -5063,8 +4350,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -5075,8 +4362,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>112</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -5089,8 +4376,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -5101,8 +4388,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -5113,8 +4400,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -5125,8 +4412,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +4424,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -5149,8 +4436,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -5161,8 +4448,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -5173,8 +4460,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -5185,8 +4472,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -5197,8 +4484,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -5209,8 +4496,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -5221,8 +4508,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -5233,8 +4520,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -5245,8 +4532,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -5257,8 +4544,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -5269,10 +4556,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -5282,7 +4569,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -5293,8 +4580,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -5304,8 +4591,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -5315,8 +4602,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AD41" s="10"/>
@@ -5326,8 +4613,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AD42" s="10"/>
@@ -5337,8 +4624,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="10"/>
@@ -5348,8 +4635,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AD44" s="10"/>
@@ -5359,8 +4646,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="AD45" s="10"/>
@@ -5370,8 +4657,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AD46" s="10"/>
@@ -5381,8 +4668,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AD47" s="10"/>
@@ -5392,8 +4679,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AD48" s="10"/>
@@ -5403,8 +4690,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD49" s="10"/>
@@ -5414,8 +4701,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AD50" s="10"/>
@@ -5425,8 +4712,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
       <c r="AD51" s="10"/>
@@ -5436,8 +4723,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AD52" s="10"/>
@@ -5447,8 +4734,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AD53" s="10"/>
@@ -5458,8 +4745,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="AD54" s="10"/>
@@ -5469,8 +4756,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AD55" s="10"/>
@@ -5480,8 +4767,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD56" s="10"/>
@@ -5491,8 +4778,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="AD57" s="10"/>
@@ -5502,8 +4789,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD58" s="10"/>
@@ -5513,8 +4800,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AD59" s="10"/>
@@ -5524,8 +4811,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
       <c r="AD60" s="10"/>
@@ -5535,8 +4822,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AD61" s="10"/>
@@ -5546,8 +4833,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AD62" s="10"/>
@@ -5557,8 +4844,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AD63" s="10"/>
@@ -5568,30 +4855,30 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -5601,8 +4888,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -5612,8 +4899,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -5623,8 +4910,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -5634,69 +4921,9 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="05+ShBcWZQ6FcZLW69pECPq3Z+5d1Yt0baN/Favial5X4VePkKbEcDVtVmzIYGKHNPGj4L38FG8AnTn2EUb22Q==" saltValue="BSwPmPU8kz/tbMmx7xG0lA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="J9WniW6JJRYsp//kbynd0coE70uJLRfvL1dmR/miKNt0SnoL8glcurwUIsEk6pZcU7Uv87uzYZl9BrnyVTrPDg==" saltValue="Vn9dRwlBposUvqhDZtW2Ug==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -5706,119 +4933,65 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Hoja5"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS71"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -5833,8 +5006,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>113</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -5847,8 +5020,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -5859,8 +5032,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -5871,8 +5044,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -5883,8 +5056,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -5895,8 +5068,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -5907,8 +5080,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -5919,8 +5092,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -5931,8 +5104,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -5943,8 +5116,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -5955,8 +5128,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -5967,8 +5140,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -5979,8 +5152,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -5991,8 +5164,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6003,8 +5176,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -6015,8 +5188,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -6027,8 +5200,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>114</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -6041,8 +5214,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -6053,8 +5226,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -6065,8 +5238,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -6077,8 +5250,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -6089,8 +5262,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -6101,8 +5274,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -6113,8 +5286,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -6125,8 +5298,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -6137,8 +5310,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -6149,8 +5322,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -6161,8 +5334,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -6173,8 +5346,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -6185,8 +5358,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -6197,8 +5370,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -6209,8 +5382,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -6221,10 +5394,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -6234,7 +5407,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -6245,8 +5418,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>92</v>
       </c>
       <c r="AD39" s="8"/>
@@ -6256,8 +5429,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>32</v>
       </c>
       <c r="AD40" s="10"/>
@@ -6267,8 +5440,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD41" s="10"/>
@@ -6278,8 +5451,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>40</v>
       </c>
       <c r="AD42" s="10"/>
@@ -6289,8 +5462,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>52</v>
       </c>
       <c r="AD43" s="10"/>
@@ -6300,8 +5473,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>93</v>
       </c>
       <c r="AD44" s="10"/>
@@ -6311,8 +5484,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AD45" s="10"/>
@@ -6322,8 +5495,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>53</v>
       </c>
       <c r="AD46" s="10"/>
@@ -6333,8 +5506,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>94</v>
       </c>
       <c r="AD47" s="10"/>
@@ -6344,8 +5517,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>42</v>
       </c>
       <c r="AD48" s="10"/>
@@ -6355,8 +5528,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>54</v>
       </c>
       <c r="AD49" s="10"/>
@@ -6366,8 +5539,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>95</v>
       </c>
       <c r="AD50" s="10"/>
@@ -6377,8 +5550,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>43</v>
       </c>
       <c r="AD51" s="10"/>
@@ -6388,8 +5561,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>55</v>
       </c>
       <c r="AD52" s="10"/>
@@ -6399,8 +5572,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>96</v>
       </c>
       <c r="AD53" s="10"/>
@@ -6410,8 +5583,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>44</v>
       </c>
       <c r="AD54" s="10"/>
@@ -6421,8 +5594,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>56</v>
       </c>
       <c r="AD55" s="10"/>
@@ -6432,8 +5605,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>97</v>
       </c>
       <c r="AD56" s="10"/>
@@ -6443,8 +5616,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>45</v>
       </c>
       <c r="AD57" s="10"/>
@@ -6454,8 +5627,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>57</v>
       </c>
       <c r="AD58" s="10"/>
@@ -6465,8 +5638,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>98</v>
       </c>
       <c r="AD59" s="10"/>
@@ -6476,8 +5649,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>99</v>
       </c>
       <c r="AD60" s="10"/>
@@ -6487,8 +5660,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>100</v>
       </c>
       <c r="AD61" s="10"/>
@@ -6498,8 +5671,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>101</v>
       </c>
       <c r="AD62" s="10"/>
@@ -6509,8 +5682,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>102</v>
       </c>
       <c r="AD63" s="10"/>
@@ -6520,8 +5693,8 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC64" s="14" t="s">
+    <row r="64" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC64" s="9" t="s">
         <v>103</v>
       </c>
       <c r="AD64" s="10"/>
@@ -6531,30 +5704,30 @@
       <c r="AP64" s="10"/>
       <c r="AS64" s="10"/>
     </row>
-    <row r="65" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC65" s="16" t="s">
+    <row r="65" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC65" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="AD65" s="26"/>
-      <c r="AG65" s="26"/>
-      <c r="AJ65" s="26"/>
-      <c r="AM65" s="26"/>
-      <c r="AP65" s="26"/>
-      <c r="AS65" s="26"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="18" t="s">
+      <c r="AD65" s="20"/>
+      <c r="AG65" s="20"/>
+      <c r="AJ65" s="20"/>
+      <c r="AM65" s="20"/>
+      <c r="AP65" s="20"/>
+      <c r="AS65" s="20"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD66" s="27"/>
-      <c r="AG66" s="27"/>
-      <c r="AJ66" s="27"/>
-      <c r="AM66" s="27"/>
-      <c r="AP66" s="27"/>
-      <c r="AS66" s="27"/>
-    </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+      <c r="AD66" s="21"/>
+      <c r="AG66" s="21"/>
+      <c r="AJ66" s="21"/>
+      <c r="AM66" s="21"/>
+      <c r="AP66" s="21"/>
+      <c r="AS66" s="21"/>
+    </row>
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -6564,8 +5737,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD68" s="10"/>
@@ -6575,8 +5748,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC69" s="14" t="s">
+    <row r="69" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC69" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD69" s="10"/>
@@ -6586,8 +5759,8 @@
       <c r="AP69" s="10"/>
       <c r="AS69" s="10"/>
     </row>
-    <row r="70" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC70" s="15" t="s">
+    <row r="70" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC70" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD70" s="12"/>
@@ -6597,7 +5770,7 @@
       <c r="AP70" s="12"/>
       <c r="AS70" s="12"/>
     </row>
-    <row r="71" spans="29:45" x14ac:dyDescent="0.25">
+    <row r="71" spans="29:45" x14ac:dyDescent="0.5">
       <c r="AC71"/>
       <c r="AD71"/>
       <c r="AG71"/>
@@ -6606,64 +5779,8 @@
       <c r="AP71"/>
       <c r="AS71"/>
     </row>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="MaRNiBwzbCU5V9s0zAzGbplSu0GyIXBnCIRHvPTMMYs66eBueOjjd8NwbY2Uq2T9zQSwS8sJxa1ou61B9nh3sA==" saltValue="O87GruSssSVWKWZag+QG6w==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="KspkNT6uyIEM8iYvi9iDqOL0OL2nc7VB3GkpigTjnwmOQoPcVO9EyoYpyMkzjcBPOUsypMQxQUhMqEQmrNnaQA==" saltValue="VnvY2QPq+b1YOiJ7hyWMCw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -6673,119 +5790,65 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Hoja6"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS70"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="1" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD1" sqref="AD1:AW4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="28" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="22" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="28" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="22" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="28" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="22" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="28" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="22" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="28" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="22" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="28" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="22" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC1"/>
-      <c r="AD1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" s="17" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD1" s="14"/>
+      <c r="AG1" s="14"/>
+      <c r="AJ1" s="14"/>
+      <c r="AM1" s="14"/>
+      <c r="AP1" s="14"/>
+      <c r="AS1" s="14"/>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC2"/>
-      <c r="AD2" s="17">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2" s="17">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="17">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2" s="17">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2" s="17">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2" s="17">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AM2" s="14"/>
+      <c r="AP2" s="14"/>
+      <c r="AS2" s="14"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3" s="17">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3" s="17">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="17">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3" s="17">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3" s="17">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3" s="17">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3" s="14"/>
+      <c r="AG3" s="14"/>
+      <c r="AJ3" s="14"/>
+      <c r="AM3" s="14"/>
+      <c r="AP3" s="14"/>
+      <c r="AS3" s="14"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -6800,8 +5863,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>115</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -6814,8 +5877,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -6826,8 +5889,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -6838,8 +5901,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -6850,8 +5913,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -6862,8 +5925,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -6874,8 +5937,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -6886,8 +5949,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -6898,8 +5961,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -6910,8 +5973,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -6922,8 +5985,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -6934,8 +5997,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -6946,8 +6009,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -6958,8 +6021,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -6970,8 +6033,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -6982,8 +6045,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -6994,8 +6057,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>116</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -7008,8 +6071,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -7020,8 +6083,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -7032,8 +6095,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -7044,8 +6107,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -7056,8 +6119,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -7068,8 +6131,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -7080,8 +6143,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -7092,8 +6155,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -7104,8 +6167,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -7116,8 +6179,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -7128,8 +6191,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -7140,8 +6203,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -7152,8 +6215,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -7164,8 +6227,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -7176,8 +6239,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -7188,10 +6251,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -7201,7 +6264,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -7212,8 +6275,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -7223,8 +6286,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -7234,8 +6297,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>62</v>
       </c>
       <c r="AD41" s="10"/>
@@ -7245,8 +6308,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>63</v>
       </c>
       <c r="AD42" s="10"/>
@@ -7256,8 +6319,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AD43" s="10"/>
@@ -7267,8 +6330,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>65</v>
       </c>
       <c r="AD44" s="10"/>
@@ -7278,8 +6341,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>66</v>
       </c>
       <c r="AD45" s="10"/>
@@ -7289,8 +6352,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>67</v>
       </c>
       <c r="AD46" s="10"/>
@@ -7300,8 +6363,8 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC47" s="14" t="s">
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC47" s="9" t="s">
         <v>68</v>
       </c>
       <c r="AD47" s="10"/>
@@ -7311,8 +6374,8 @@
       <c r="AP47" s="10"/>
       <c r="AS47" s="10"/>
     </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC48" s="14" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC48" s="9" t="s">
         <v>69</v>
       </c>
       <c r="AD48" s="10"/>
@@ -7322,8 +6385,8 @@
       <c r="AP48" s="10"/>
       <c r="AS48" s="10"/>
     </row>
-    <row r="49" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC49" s="14" t="s">
+    <row r="49" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC49" s="9" t="s">
         <v>70</v>
       </c>
       <c r="AD49" s="10"/>
@@ -7333,8 +6396,8 @@
       <c r="AP49" s="10"/>
       <c r="AS49" s="10"/>
     </row>
-    <row r="50" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC50" s="14" t="s">
+    <row r="50" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC50" s="9" t="s">
         <v>71</v>
       </c>
       <c r="AD50" s="10"/>
@@ -7344,8 +6407,8 @@
       <c r="AP50" s="10"/>
       <c r="AS50" s="10"/>
     </row>
-    <row r="51" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC51" s="14" t="s">
+    <row r="51" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC51" s="9" t="s">
         <v>72</v>
       </c>
       <c r="AD51" s="10"/>
@@ -7355,8 +6418,8 @@
       <c r="AP51" s="10"/>
       <c r="AS51" s="10"/>
     </row>
-    <row r="52" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC52" s="14" t="s">
+    <row r="52" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC52" s="9" t="s">
         <v>73</v>
       </c>
       <c r="AD52" s="10"/>
@@ -7366,8 +6429,8 @@
       <c r="AP52" s="10"/>
       <c r="AS52" s="10"/>
     </row>
-    <row r="53" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC53" s="14" t="s">
+    <row r="53" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC53" s="9" t="s">
         <v>74</v>
       </c>
       <c r="AD53" s="10"/>
@@ -7377,8 +6440,8 @@
       <c r="AP53" s="10"/>
       <c r="AS53" s="10"/>
     </row>
-    <row r="54" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC54" s="14" t="s">
+    <row r="54" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC54" s="9" t="s">
         <v>75</v>
       </c>
       <c r="AD54" s="10"/>
@@ -7388,8 +6451,8 @@
       <c r="AP54" s="10"/>
       <c r="AS54" s="10"/>
     </row>
-    <row r="55" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC55" s="14" t="s">
+    <row r="55" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC55" s="9" t="s">
         <v>76</v>
       </c>
       <c r="AD55" s="10"/>
@@ -7399,8 +6462,8 @@
       <c r="AP55" s="10"/>
       <c r="AS55" s="10"/>
     </row>
-    <row r="56" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC56" s="14" t="s">
+    <row r="56" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC56" s="9" t="s">
         <v>77</v>
       </c>
       <c r="AD56" s="10"/>
@@ -7410,8 +6473,8 @@
       <c r="AP56" s="10"/>
       <c r="AS56" s="10"/>
     </row>
-    <row r="57" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC57" s="14" t="s">
+    <row r="57" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC57" s="9" t="s">
         <v>61</v>
       </c>
       <c r="AD57" s="10"/>
@@ -7421,8 +6484,8 @@
       <c r="AP57" s="10"/>
       <c r="AS57" s="10"/>
     </row>
-    <row r="58" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC58" s="14" t="s">
+    <row r="58" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC58" s="9" t="s">
         <v>78</v>
       </c>
       <c r="AD58" s="10"/>
@@ -7432,8 +6495,8 @@
       <c r="AP58" s="10"/>
       <c r="AS58" s="10"/>
     </row>
-    <row r="59" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC59" s="14" t="s">
+    <row r="59" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC59" s="9" t="s">
         <v>79</v>
       </c>
       <c r="AD59" s="10"/>
@@ -7443,8 +6506,8 @@
       <c r="AP59" s="10"/>
       <c r="AS59" s="10"/>
     </row>
-    <row r="60" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC60" s="14" t="s">
+    <row r="60" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC60" s="9" t="s">
         <v>80</v>
       </c>
       <c r="AD60" s="10"/>
@@ -7454,8 +6517,8 @@
       <c r="AP60" s="10"/>
       <c r="AS60" s="10"/>
     </row>
-    <row r="61" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC61" s="14" t="s">
+    <row r="61" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC61" s="9" t="s">
         <v>81</v>
       </c>
       <c r="AD61" s="10"/>
@@ -7465,8 +6528,8 @@
       <c r="AP61" s="10"/>
       <c r="AS61" s="10"/>
     </row>
-    <row r="62" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC62" s="14" t="s">
+    <row r="62" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC62" s="9" t="s">
         <v>82</v>
       </c>
       <c r="AD62" s="10"/>
@@ -7476,8 +6539,8 @@
       <c r="AP62" s="10"/>
       <c r="AS62" s="10"/>
     </row>
-    <row r="63" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC63" s="14" t="s">
+    <row r="63" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC63" s="9" t="s">
         <v>83</v>
       </c>
       <c r="AD63" s="10"/>
@@ -7487,30 +6550,30 @@
       <c r="AP63" s="10"/>
       <c r="AS63" s="10"/>
     </row>
-    <row r="64" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC64" s="16" t="s">
+    <row r="64" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC64" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="AD64" s="26"/>
-      <c r="AG64" s="26"/>
-      <c r="AJ64" s="26"/>
-      <c r="AM64" s="26"/>
-      <c r="AP64" s="26"/>
-      <c r="AS64" s="26"/>
-    </row>
-    <row r="65" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC65" s="18" t="s">
+      <c r="AD64" s="20"/>
+      <c r="AG64" s="20"/>
+      <c r="AJ64" s="20"/>
+      <c r="AM64" s="20"/>
+      <c r="AP64" s="20"/>
+      <c r="AS64" s="20"/>
+    </row>
+    <row r="65" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC65" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD65" s="27"/>
-      <c r="AG65" s="27"/>
-      <c r="AJ65" s="27"/>
-      <c r="AM65" s="27"/>
-      <c r="AP65" s="27"/>
-      <c r="AS65" s="27"/>
-    </row>
-    <row r="66" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC66" s="14" t="s">
+      <c r="AD65" s="21"/>
+      <c r="AG65" s="21"/>
+      <c r="AJ65" s="21"/>
+      <c r="AM65" s="21"/>
+      <c r="AP65" s="21"/>
+      <c r="AS65" s="21"/>
+    </row>
+    <row r="66" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD66" s="10"/>
@@ -7520,8 +6583,8 @@
       <c r="AP66" s="10"/>
       <c r="AS66" s="10"/>
     </row>
-    <row r="67" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC67" s="14" t="s">
+    <row r="67" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC67" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD67" s="10"/>
@@ -7531,8 +6594,8 @@
       <c r="AP67" s="10"/>
       <c r="AS67" s="10"/>
     </row>
-    <row r="68" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AC68" s="14" t="s">
+    <row r="68" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AC68" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD68" s="10"/>
@@ -7542,8 +6605,8 @@
       <c r="AP68" s="10"/>
       <c r="AS68" s="10"/>
     </row>
-    <row r="69" spans="29:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC69" s="15" t="s">
+    <row r="69" spans="29:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC69" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD69" s="12"/>
@@ -7553,73 +6616,16 @@
       <c r="AP69" s="12"/>
       <c r="AS69" s="12"/>
     </row>
-    <row r="70" spans="29:45" x14ac:dyDescent="0.25">
-      <c r="AD70" s="25"/>
-      <c r="AG70" s="25"/>
-      <c r="AJ70" s="25"/>
-      <c r="AM70" s="25"/>
-      <c r="AP70" s="25"/>
-      <c r="AS70" s="25"/>
-    </row>
-    <row r="71" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" spans="29:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="29:45" x14ac:dyDescent="0.5">
+      <c r="AD70" s="1"/>
+      <c r="AG70" s="1"/>
+      <c r="AJ70" s="1"/>
+      <c r="AM70" s="1"/>
+      <c r="AP70" s="1"/>
+      <c r="AS70" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="OwVgI+TgLgPNAYOLJUYqazAhhX30YdtmZcIqIRAMD85Pkaz6XrZ/rtnReBuSECbWJapIHlxEKfFF1SwpR6Oizg==" saltValue="T7ymkPRL3BhfxB4/nZkOTg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="slgH8gmdd5GBt4vubCPQOWNbdrrwMAwjjIAZj/cOa0H2TN0KQoiUi1H6iNNFyLJL8pA0FgzhOhfhrGWYYxv1wA==" saltValue="tt/rWnwh6+HWqLo58m6DWQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -7629,119 +6635,65 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr codeName="Hoja7"/>
-  <dimension ref="A1:AS127"/>
+  <dimension ref="A1:AS49"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
     <col min="2" max="28" width="0" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="17" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="14" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="17" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="14" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="17" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="14" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="17" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="14" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="17" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="14" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="17" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="14" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -7756,8 +6708,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>117</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -7770,8 +6722,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -7782,8 +6734,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -7794,8 +6746,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -7806,8 +6758,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -7818,8 +6770,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -7830,8 +6782,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -7842,8 +6794,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -7854,8 +6806,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -7866,8 +6818,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -7878,8 +6830,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -7890,8 +6842,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -7902,8 +6854,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -7914,8 +6866,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -7926,8 +6878,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -7938,8 +6890,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -7950,8 +6902,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>118</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -7964,8 +6916,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -7976,8 +6928,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -7988,8 +6940,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>18</v>
       </c>
@@ -8000,8 +6952,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>18</v>
       </c>
@@ -8012,8 +6964,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -8024,8 +6976,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -8036,8 +6988,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -8048,8 +7000,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -8060,8 +7012,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -8072,8 +7024,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -8084,8 +7036,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -8096,8 +7048,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -8108,8 +7060,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -8120,8 +7072,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -8132,8 +7084,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -8144,10 +7096,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" s="24" customFormat="1" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="23" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -8157,7 +7109,7 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="3" t="s">
         <v>39</v>
       </c>
@@ -8168,8 +7120,8 @@
       <c r="AP38" s="4"/>
       <c r="AS38" s="4"/>
     </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC39" s="13" t="s">
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AD39" s="8"/>
@@ -8179,8 +7131,8 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC40" s="14" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
       <c r="AD40" s="10"/>
@@ -8190,8 +7142,8 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC41" s="14" t="s">
+    <row r="41" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC41" s="9" t="s">
         <v>85</v>
       </c>
       <c r="AD41" s="10"/>
@@ -8201,8 +7153,8 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="14" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="9" t="s">
         <v>86</v>
       </c>
       <c r="AD42" s="10"/>
@@ -8212,8 +7164,8 @@
       <c r="AP42" s="10"/>
       <c r="AS42" s="10"/>
     </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>87</v>
       </c>
       <c r="AD43" s="10"/>
@@ -8223,8 +7175,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>88</v>
       </c>
       <c r="AD44" s="10"/>
@@ -8234,8 +7186,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>89</v>
       </c>
       <c r="AD45" s="10"/>
@@ -8245,8 +7197,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC46" s="14" t="s">
+    <row r="46" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC46" s="9" t="s">
         <v>90</v>
       </c>
       <c r="AD46" s="10"/>
@@ -8256,121 +7208,43 @@
       <c r="AP46" s="10"/>
       <c r="AS46" s="10"/>
     </row>
-    <row r="47" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC47" s="15" t="s">
+    <row r="47" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC47" s="11" t="s">
         <v>91</v>
       </c>
       <c r="AD47" s="12"/>
-      <c r="AE47" s="20"/>
-      <c r="AF47" s="20"/>
+      <c r="AE47" s="17"/>
+      <c r="AF47" s="17"/>
       <c r="AG47" s="12"/>
-      <c r="AH47" s="20"/>
-      <c r="AI47" s="20"/>
+      <c r="AH47" s="17"/>
+      <c r="AI47" s="17"/>
       <c r="AJ47" s="12"/>
-      <c r="AK47" s="20"/>
-      <c r="AL47" s="20"/>
+      <c r="AK47" s="17"/>
+      <c r="AL47" s="17"/>
       <c r="AM47" s="12"/>
-      <c r="AN47" s="20"/>
-      <c r="AO47" s="20"/>
+      <c r="AN47" s="17"/>
+      <c r="AO47" s="17"/>
       <c r="AP47" s="12"/>
-      <c r="AQ47" s="20"/>
-      <c r="AR47" s="20"/>
+      <c r="AQ47" s="17"/>
+      <c r="AR47" s="17"/>
       <c r="AS47" s="12"/>
     </row>
-    <row r="48" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC48" s="21" t="s">
+    <row r="48" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC48" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="AD48" s="22"/>
-      <c r="AG48" s="22"/>
-      <c r="AJ48" s="22"/>
-      <c r="AM48" s="22"/>
-      <c r="AP48" s="22"/>
-      <c r="AS48" s="22"/>
-    </row>
-    <row r="49" spans="29:29" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="AC49" s="25"/>
-    </row>
-    <row r="50" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="29:29" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
+      <c r="AD48" s="19"/>
+      <c r="AG48" s="19"/>
+      <c r="AJ48" s="19"/>
+      <c r="AM48" s="19"/>
+      <c r="AP48" s="19"/>
+      <c r="AS48" s="19"/>
+    </row>
+    <row r="49" spans="29:29" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="AC49" s="1"/>
+    </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="19CFxUagIPb7PP+cSQbFVs9HDgtlX2QpoSNtQRyph6yfGG6TWwUyZT+qbpmQNHYgaPUAPVFWrtDbUCYkWwTj4A==" saltValue="S4BxF7PH6JPwM0zg3TuOuA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="oR1D7ZX2pHxUvZ+YDkaCBfobQkMuQsro1GR1qK/dBcnlnFoDD9xwrr0jEAtNK4xiFRBh5lGmDatL8QFmv7Pshw==" saltValue="cisDO2gNoSbJzPpRLwR/HQ==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
@@ -8380,119 +7254,65 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Hoja8"/>
-  <dimension ref="A1:AS139"/>
+  <dimension ref="A1:AS47"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="29" ySplit="4" topLeftCell="AD5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="AD5" sqref="AD5"/>
       <selection pane="topRight" activeCell="AD5" sqref="AD5"/>
       <selection pane="bottomLeft" activeCell="AD5" sqref="AD5"/>
-      <selection pane="bottomRight" activeCell="AD5" sqref="AD5"/>
+      <selection pane="bottomRight" activeCell="AD4" sqref="AD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" zeroHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="28" width="11.42578125" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="15.7109375" style="1" customWidth="1"/>
-    <col min="30" max="30" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.64453125" customWidth="1"/>
+    <col min="2" max="28" width="11.41015625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="15.64453125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="30.64453125" style="1" customWidth="1"/>
     <col min="31" max="32" width="0" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="30.7109375" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30.64453125" style="1" customWidth="1"/>
     <col min="34" max="35" width="0" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="30.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="30.64453125" style="1" customWidth="1"/>
     <col min="37" max="38" width="0" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="30.7109375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="30.64453125" style="1" customWidth="1"/>
     <col min="40" max="41" width="0" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="30.7109375" style="1" customWidth="1"/>
+    <col min="42" max="42" width="30.64453125" style="1" customWidth="1"/>
     <col min="43" max="44" width="0" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="30.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="30.64453125" style="1" customWidth="1"/>
     <col min="46" max="47" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC1"/>
-      <c r="AD1" t="str">
-        <f>IFERROR(HLOOKUP(AD4,$AB$4:AC4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AG1" t="str">
-        <f>IFERROR(HLOOKUP(AG4,$AB$4:AF4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AJ1" t="str">
-        <f>IFERROR(HLOOKUP(AJ4,$AB$4:AI4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AM1" t="str">
-        <f>IFERROR(HLOOKUP(AM4,$AB$4:AL4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AP1" t="str">
-        <f>IFERROR(HLOOKUP(AP4,$AB$4:AO4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="AS1" t="str">
-        <f>IFERROR(HLOOKUP(AS4,$AB$4:AR4,1,0),"OK")</f>
-        <v>OK</v>
-      </c>
-    </row>
-    <row r="2" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD1"/>
+      <c r="AG1"/>
+      <c r="AJ1"/>
+      <c r="AM1"/>
+      <c r="AP1"/>
+      <c r="AS1"/>
+    </row>
+    <row r="2" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC2"/>
-      <c r="AD2">
-        <f>COUNTA(AD5:AD36)</f>
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <f>COUNTA(AG5:AG36)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <f>COUNTA(AJ5:AJ36)</f>
-        <v>0</v>
-      </c>
-      <c r="AM2">
-        <f>COUNTA(AM5:AM36)</f>
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <f>COUNTA(AP5:AP36)</f>
-        <v>0</v>
-      </c>
-      <c r="AS2">
-        <f>COUNTA(AS5:AS36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:45" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD2"/>
+      <c r="AG2"/>
+      <c r="AJ2"/>
+      <c r="AM2"/>
+      <c r="AP2"/>
+      <c r="AS2"/>
+    </row>
+    <row r="3" spans="1:45" ht="14.7" hidden="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC3"/>
-      <c r="AD3">
-        <f>COUNTA(AD39:AD79)</f>
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <f>COUNTA(AG39:AG79)</f>
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <f>COUNTA(AJ39:AJ79)</f>
-        <v>0</v>
-      </c>
-      <c r="AM3">
-        <f>COUNTA(AM39:AM79)</f>
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <f>COUNTA(AP39:AP79)</f>
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <f>COUNTA(AS39:AS79)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AD3"/>
+      <c r="AG3"/>
+      <c r="AJ3"/>
+      <c r="AM3"/>
+      <c r="AP3"/>
+      <c r="AS3"/>
+    </row>
+    <row r="4" spans="1:45" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5">
         <f>COUNTA(AC4:XFD4)-1</f>
         <v>0</v>
@@ -8507,8 +7327,8 @@
       <c r="AP4" s="4"/>
       <c r="AS4" s="4"/>
     </row>
-    <row r="5" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="24" t="s">
         <v>120</v>
       </c>
       <c r="AC5" s="7" t="s">
@@ -8521,8 +7341,8 @@
       <c r="AP5" s="8"/>
       <c r="AS5" s="8"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+    <row r="6" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="24"/>
       <c r="AC6" s="9" t="s">
         <v>1</v>
       </c>
@@ -8533,8 +7353,8 @@
       <c r="AP6" s="10"/>
       <c r="AS6" s="10"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+    <row r="7" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="24"/>
       <c r="AC7" s="9" t="s">
         <v>2</v>
       </c>
@@ -8545,8 +7365,8 @@
       <c r="AP7" s="10"/>
       <c r="AS7" s="10"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="24"/>
       <c r="AC8" s="9" t="s">
         <v>3</v>
       </c>
@@ -8557,8 +7377,8 @@
       <c r="AP8" s="10"/>
       <c r="AS8" s="10"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+    <row r="9" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="24"/>
       <c r="AC9" s="9" t="s">
         <v>4</v>
       </c>
@@ -8569,8 +7389,8 @@
       <c r="AP9" s="10"/>
       <c r="AS9" s="10"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+    <row r="10" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="24"/>
       <c r="AC10" s="9" t="s">
         <v>5</v>
       </c>
@@ -8581,8 +7401,8 @@
       <c r="AP10" s="10"/>
       <c r="AS10" s="10"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
+    <row r="11" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="24"/>
       <c r="AC11" s="9" t="s">
         <v>6</v>
       </c>
@@ -8593,8 +7413,8 @@
       <c r="AP11" s="10"/>
       <c r="AS11" s="10"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+    <row r="12" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="24"/>
       <c r="AC12" s="9" t="s">
         <v>7</v>
       </c>
@@ -8605,8 +7425,8 @@
       <c r="AP12" s="10"/>
       <c r="AS12" s="10"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+    <row r="13" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="24"/>
       <c r="AC13" s="9" t="s">
         <v>8</v>
       </c>
@@ -8617,8 +7437,8 @@
       <c r="AP13" s="10"/>
       <c r="AS13" s="10"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+    <row r="14" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="24"/>
       <c r="AC14" s="9" t="s">
         <v>9</v>
       </c>
@@ -8629,8 +7449,8 @@
       <c r="AP14" s="10"/>
       <c r="AS14" s="10"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+    <row r="15" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="24"/>
       <c r="AC15" s="9" t="s">
         <v>10</v>
       </c>
@@ -8641,8 +7461,8 @@
       <c r="AP15" s="10"/>
       <c r="AS15" s="10"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+    <row r="16" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="24"/>
       <c r="AC16" s="9" t="s">
         <v>11</v>
       </c>
@@ -8653,8 +7473,8 @@
       <c r="AP16" s="10"/>
       <c r="AS16" s="10"/>
     </row>
-    <row r="17" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+    <row r="17" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="24"/>
       <c r="AC17" s="9" t="s">
         <v>12</v>
       </c>
@@ -8665,8 +7485,8 @@
       <c r="AP17" s="10"/>
       <c r="AS17" s="10"/>
     </row>
-    <row r="18" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+    <row r="18" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="24"/>
       <c r="AC18" s="9" t="s">
         <v>13</v>
       </c>
@@ -8677,8 +7497,8 @@
       <c r="AP18" s="10"/>
       <c r="AS18" s="10"/>
     </row>
-    <row r="19" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+    <row r="19" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="24"/>
       <c r="AC19" s="9" t="s">
         <v>14</v>
       </c>
@@ -8689,8 +7509,8 @@
       <c r="AP19" s="10"/>
       <c r="AS19" s="10"/>
     </row>
-    <row r="20" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+    <row r="20" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="24"/>
       <c r="AC20" s="9" t="s">
         <v>15</v>
       </c>
@@ -8701,8 +7521,8 @@
       <c r="AP20" s="10"/>
       <c r="AS20" s="10"/>
     </row>
-    <row r="21" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="24" t="s">
         <v>119</v>
       </c>
       <c r="AC21" s="9" t="s">
@@ -8715,8 +7535,8 @@
       <c r="AP21" s="10"/>
       <c r="AS21" s="10"/>
     </row>
-    <row r="22" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+    <row r="22" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="24"/>
       <c r="AC22" s="9" t="s">
         <v>17</v>
       </c>
@@ -8727,8 +7547,8 @@
       <c r="AP22" s="10"/>
       <c r="AS22" s="10"/>
     </row>
-    <row r="23" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+    <row r="23" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="24"/>
       <c r="AC23" s="9" t="s">
         <v>18</v>
       </c>
@@ -8739,8 +7559,8 @@
       <c r="AP23" s="10"/>
       <c r="AS23" s="10"/>
     </row>
-    <row r="24" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
+    <row r="24" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="24"/>
       <c r="AC24" s="9" t="s">
         <v>19</v>
       </c>
@@ -8751,8 +7571,8 @@
       <c r="AP24" s="10"/>
       <c r="AS24" s="10"/>
     </row>
-    <row r="25" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+    <row r="25" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="24"/>
       <c r="AC25" s="9" t="s">
         <v>20</v>
       </c>
@@ -8763,8 +7583,8 @@
       <c r="AP25" s="10"/>
       <c r="AS25" s="10"/>
     </row>
-    <row r="26" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+    <row r="26" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="24"/>
       <c r="AC26" s="9" t="s">
         <v>21</v>
       </c>
@@ -8775,8 +7595,8 @@
       <c r="AP26" s="10"/>
       <c r="AS26" s="10"/>
     </row>
-    <row r="27" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+    <row r="27" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="24"/>
       <c r="AC27" s="9" t="s">
         <v>22</v>
       </c>
@@ -8787,8 +7607,8 @@
       <c r="AP27" s="10"/>
       <c r="AS27" s="10"/>
     </row>
-    <row r="28" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+    <row r="28" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="24"/>
       <c r="AC28" s="9" t="s">
         <v>23</v>
       </c>
@@ -8799,8 +7619,8 @@
       <c r="AP28" s="10"/>
       <c r="AS28" s="10"/>
     </row>
-    <row r="29" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+    <row r="29" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="24"/>
       <c r="AC29" s="9" t="s">
         <v>24</v>
       </c>
@@ -8811,8 +7631,8 @@
       <c r="AP29" s="10"/>
       <c r="AS29" s="10"/>
     </row>
-    <row r="30" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+    <row r="30" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="24"/>
       <c r="AC30" s="9" t="s">
         <v>25</v>
       </c>
@@ -8823,8 +7643,8 @@
       <c r="AP30" s="10"/>
       <c r="AS30" s="10"/>
     </row>
-    <row r="31" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+    <row r="31" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="24"/>
       <c r="AC31" s="9" t="s">
         <v>26</v>
       </c>
@@ -8835,8 +7655,8 @@
       <c r="AP31" s="10"/>
       <c r="AS31" s="10"/>
     </row>
-    <row r="32" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+    <row r="32" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="24"/>
       <c r="AC32" s="9" t="s">
         <v>27</v>
       </c>
@@ -8847,8 +7667,8 @@
       <c r="AP32" s="10"/>
       <c r="AS32" s="10"/>
     </row>
-    <row r="33" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30"/>
+    <row r="33" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="24"/>
       <c r="AC33" s="9" t="s">
         <v>28</v>
       </c>
@@ -8859,8 +7679,8 @@
       <c r="AP33" s="10"/>
       <c r="AS33" s="10"/>
     </row>
-    <row r="34" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+    <row r="34" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="24"/>
       <c r="AC34" s="9" t="s">
         <v>29</v>
       </c>
@@ -8871,8 +7691,8 @@
       <c r="AP34" s="10"/>
       <c r="AS34" s="10"/>
     </row>
-    <row r="35" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+    <row r="35" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="24"/>
       <c r="AC35" s="9" t="s">
         <v>30</v>
       </c>
@@ -8883,8 +7703,8 @@
       <c r="AP35" s="10"/>
       <c r="AS35" s="10"/>
     </row>
-    <row r="36" spans="1:45" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+    <row r="36" spans="1:45" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="24"/>
       <c r="AC36" s="11" t="s">
         <v>31</v>
       </c>
@@ -8895,10 +7715,10 @@
       <c r="AP36" s="12"/>
       <c r="AS36" s="12"/>
     </row>
-    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="19" t="str">
+    <row r="37" spans="1:45" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="16" t="str">
         <f>'Formulas OM'!A37</f>
-        <v>V - 7.0</v>
+        <v>V - 8.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
@@ -8908,18 +7728,18 @@
       <c r="AP37" s="2"/>
       <c r="AS37" s="2"/>
     </row>
-    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:45" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.5">
       <c r="AC38" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AD38" s="29"/>
-      <c r="AG38" s="29"/>
-      <c r="AJ38" s="29"/>
-      <c r="AM38" s="29"/>
-      <c r="AP38" s="29"/>
-      <c r="AS38" s="29"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="AD38" s="23"/>
+      <c r="AG38" s="23"/>
+      <c r="AJ38" s="23"/>
+      <c r="AM38" s="23"/>
+      <c r="AP38" s="23"/>
+      <c r="AS38" s="23"/>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC39" s="7" t="s">
         <v>32</v>
       </c>
@@ -8930,7 +7750,7 @@
       <c r="AP39" s="8"/>
       <c r="AS39" s="8"/>
     </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.5">
       <c r="AC40" s="9" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +7761,7 @@
       <c r="AP40" s="10"/>
       <c r="AS40" s="10"/>
     </row>
-    <row r="41" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="AC41" s="9" t="s">
         <v>34</v>
       </c>
@@ -8952,19 +7772,19 @@
       <c r="AP41" s="10"/>
       <c r="AS41" s="10"/>
     </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC42" s="18" t="s">
+    <row r="42" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC42" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AD42" s="27"/>
-      <c r="AG42" s="27"/>
-      <c r="AJ42" s="27"/>
-      <c r="AM42" s="27"/>
-      <c r="AP42" s="27"/>
-      <c r="AS42" s="27"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC43" s="14" t="s">
+      <c r="AD42" s="21"/>
+      <c r="AG42" s="21"/>
+      <c r="AJ42" s="21"/>
+      <c r="AM42" s="21"/>
+      <c r="AP42" s="21"/>
+      <c r="AS42" s="21"/>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC43" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD43" s="10"/>
@@ -8974,8 +7794,8 @@
       <c r="AP43" s="10"/>
       <c r="AS43" s="10"/>
     </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC44" s="14" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC44" s="9" t="s">
         <v>36</v>
       </c>
       <c r="AD44" s="10"/>
@@ -8985,8 +7805,8 @@
       <c r="AP44" s="10"/>
       <c r="AS44" s="10"/>
     </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="AC45" s="14" t="s">
+    <row r="45" spans="1:45" x14ac:dyDescent="0.5">
+      <c r="AC45" s="9" t="s">
         <v>37</v>
       </c>
       <c r="AD45" s="10"/>
@@ -8996,8 +7816,8 @@
       <c r="AP45" s="10"/>
       <c r="AS45" s="10"/>
     </row>
-    <row r="46" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="AC46" s="15" t="s">
+    <row r="46" spans="1:45" ht="14.7" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="AC46" s="11" t="s">
         <v>38</v>
       </c>
       <c r="AD46" s="12"/>
@@ -9007,101 +7827,9 @@
       <c r="AP46" s="12"/>
       <c r="AS46" s="12"/>
     </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:45" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="71" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="72" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="73" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="74" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="75" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="76" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="77" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="78" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="79" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="80" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="81" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="82" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="83" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="84" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="85" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="86" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="87" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="88" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="89" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="90" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="91" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="92" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="93" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="94" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="95" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="96" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="97" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="98" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="99" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="100" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="101" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="102" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="103" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="104" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="105" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="106" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="107" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="108" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="109" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="110" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="111" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="112" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="113" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="114" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="115" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="116" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="117" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="118" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="119" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="120" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="121" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="122" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="123" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="124" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="125" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="126" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="127" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="128" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="129" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="130" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="131" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="132" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="133" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="134" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="135" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="136" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="137" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="138" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="139" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PJyUkMEe6oxH6J0L3XF+H22cBnS+SvNtJ7wXFBnetqNVYc7Z0UyrZTdbi3wUYZfDM75FE+p/sVS9f3z0qz5PfQ==" saltValue="SuEGW/F/xZcOXs5M0AhQmg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="DE78M+IOfCaYiC3TxvuqQSDe7gonbNbiqAB30o0auWBpz2D2iASEoMei2Tf/Cthc7WKZwBWqxJhIctiiPm5tgg==" saltValue="EWHKeIXSN7Is0pv63w4vlg==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" autoFilter="0"/>
   <mergeCells count="2">
     <mergeCell ref="A5:A20"/>
     <mergeCell ref="A21:A36"/>
